--- a/문서/EduGalaxy 데이터 테이블.xlsx
+++ b/문서/EduGalaxy 데이터 테이블.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="145">
   <si>
     <t>숫자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,10 +437,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LevelEdu.tbl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -519,63 +515,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>PK, FK(EdUser의 id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eduser_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(student의 id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(child의 id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 제한 제어값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK(auto)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 관련 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(EdUser의 id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(info의 id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(post의 id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.15 기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>나이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PK, FK(EdUser의 id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eduser_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(student의 id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(child의 id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 제한 제어값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modified_cnt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK(auto)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 관련 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(EdUser의 id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(info의 id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(post의 id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.08.15 기준</t>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EduLevel.tbl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 생성 날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -986,9 +1006,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,24 +1043,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1344,35 +1364,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A5" s="23"/>
@@ -1382,7 +1402,7 @@
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -1423,17 +1443,17 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1454,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1473,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1571,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>24</v>
@@ -1580,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1704,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="G30" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -1731,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1749,12 +1769,12 @@
         <v>26</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F33" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>35</v>
@@ -1763,19 +1783,19 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F34" s="18" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F35" s="19" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="H35" s="17"/>
     </row>
@@ -1787,10 +1807,10 @@
         <v>47</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
@@ -1815,22 +1835,22 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
@@ -1842,13 +1862,13 @@
       </c>
       <c r="D41" s="4"/>
       <c r="F41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -1860,13 +1880,13 @@
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
@@ -1878,13 +1898,13 @@
       </c>
       <c r="D43" s="20"/>
       <c r="F43" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="H43" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1896,34 +1916,34 @@
       </c>
       <c r="D44" s="17"/>
       <c r="F44" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F45" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B61" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="40"/>
     </row>
     <row r="62" spans="1:8" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="38"/>
+      <c r="A62" s="31"/>
     </row>
     <row r="63" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
@@ -1935,10 +1955,10 @@
       <c r="F63" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="28"/>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B64" s="8" t="s">
@@ -1968,7 +1988,7 @@
         <v>35</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>55</v>
@@ -1977,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -1995,7 +2015,7 @@
         <v>52</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -2029,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -2050,7 +2070,7 @@
     </row>
     <row r="70" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>59</v>
@@ -2060,13 +2080,13 @@
       </c>
       <c r="D70" s="15"/>
       <c r="F70" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -2101,10 +2121,10 @@
       <c r="F73" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G73" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" s="28"/>
+      <c r="G73" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" s="33"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B74" s="18" t="s">
@@ -2139,7 +2159,7 @@
         <v>35</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -2167,10 +2187,10 @@
       </c>
       <c r="D77" s="15"/>
       <c r="F77" s="3" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="H77" s="4"/>
     </row>
@@ -2183,10 +2203,10 @@
       </c>
       <c r="D78" s="15"/>
       <c r="F78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -2199,16 +2219,14 @@
       </c>
       <c r="D79" s="15"/>
       <c r="F79" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
@@ -2216,17 +2234,17 @@
         <v>6</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="F80" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="F80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H80" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B81" s="18" t="s">
         <v>41</v>
       </c>
@@ -2234,9 +2252,15 @@
         <v>6</v>
       </c>
       <c r="D81" s="15"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="F81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="18" t="s">
@@ -2258,13 +2282,9 @@
         <v>6</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="F83" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H83" s="40"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B84" s="18" t="s">
@@ -2274,15 +2294,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="15"/>
-      <c r="F84" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="F84" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B85" s="18" t="s">
@@ -2292,14 +2310,14 @@
         <v>6</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="F85" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>133</v>
+      <c r="F85" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.4">
@@ -2311,12 +2329,14 @@
       </c>
       <c r="D86" s="15"/>
       <c r="F86" s="3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" s="18" t="s">
@@ -2326,13 +2346,13 @@
         <v>75</v>
       </c>
       <c r="D87" s="15"/>
-      <c r="F87" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="20"/>
+      <c r="F87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="18" t="s">
@@ -2343,10 +2363,10 @@
       </c>
       <c r="D88" s="15"/>
       <c r="F88" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H88" s="20"/>
     </row>
@@ -2359,10 +2379,10 @@
       </c>
       <c r="D89" s="15"/>
       <c r="F89" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H89" s="20"/>
     </row>
@@ -2374,13 +2394,13 @@
         <v>6</v>
       </c>
       <c r="D90" s="15"/>
-      <c r="F90" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="4"/>
+      <c r="F90" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="20"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="18" t="s">
@@ -2391,10 +2411,10 @@
       </c>
       <c r="D91" s="15"/>
       <c r="F91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -2407,16 +2427,14 @@
       </c>
       <c r="D92" s="15"/>
       <c r="F92" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" s="18" t="s">
         <v>82</v>
       </c>
@@ -2424,14 +2442,14 @@
         <v>35</v>
       </c>
       <c r="D93" s="15"/>
-      <c r="F93" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="F93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="25" t="s">
-        <v>138</v>
+      <c r="H93" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2442,11 +2460,20 @@
         <v>12</v>
       </c>
       <c r="D94" s="17"/>
+      <c r="F94" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="G63:H63"/>
